--- a/data/DataTables/Items.xlsx
+++ b/data/DataTables/Items.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\the8ballsblast\Assets\Design\Documents\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silly/projects/The8BallsBlast/Assets/Design/Documents/DataTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B1569B-6788-40AE-A07E-22A11FC66684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D78036-01AA-614B-AD0E-840EFB483D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="760" windowWidth="31700" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,24 +55,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">使用
+1  使用
 2  合成
 3  只显示拥有数量
 </t>
@@ -72,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -284,82 +279,65 @@
     <t>默认球桌</t>
   </si>
   <si>
+    <t>默认球杆碎片</t>
+  </si>
+  <si>
     <t>获得10个碎片可合成对应球杆，同时也是球杆升级的必备物品</t>
   </si>
   <si>
+    <t>枫木球杆碎片</t>
+  </si>
+  <si>
+    <t>竹节球杆碎片</t>
+  </si>
+  <si>
+    <t>新球杆1碎片</t>
+  </si>
+  <si>
+    <t>新球杆2碎片</t>
+  </si>
+  <si>
+    <t>新球杆3碎片</t>
+  </si>
+  <si>
+    <t>新球杆4碎片</t>
+  </si>
+  <si>
+    <t>新球杆5碎片</t>
+  </si>
+  <si>
     <t>金币翻倍卡</t>
   </si>
   <si>
     <t>使用后，下一次对局获胜获得的金币翻倍</t>
   </si>
   <si>
+    <t>金币保护卡</t>
+  </si>
+  <si>
+    <t>使用后，下一次对局如果失败，将不扣除金币</t>
+  </si>
+  <si>
+    <t>经验翻倍卡</t>
+  </si>
+  <si>
+    <t>使用后，下一次对局获得得经验+100%</t>
+  </si>
+  <si>
     <t>魔法道具-扔鸡蛋</t>
   </si>
   <si>
+    <t>扔鸡蛋</t>
+  </si>
+  <si>
     <t>在对局中对对手使用的魔法道具</t>
-  </si>
-  <si>
-    <t>枫木球杆碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹节球杆碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新球杆1碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新球杆2碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新球杆3碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新球杆4碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新球杆5碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认球桌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认球杆碎片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>扔鸡蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币保护卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验翻倍卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后，下一次对局如果失败，将不扣除金币</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后，下一次对局获得得经验+100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,6 +349,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFFC000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -387,58 +403,9 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFFC000"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="8"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,25 +437,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,50 +735,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="1"/>
-    <col min="2" max="2" width="10.84375" style="3"/>
-    <col min="3" max="3" width="20" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.921875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="62.69140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.15234375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.84375" style="3"/>
-    <col min="10" max="10" width="31.4609375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.69140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.4609375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.3046875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.84375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.4609375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="13.3046875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="10.84375" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="31.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="34" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -823,31 +790,31 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -860,17 +827,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -882,28 +849,28 @@
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -916,20 +883,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="19">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -941,35 +908,35 @@
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="19">
       <c r="B5" s="5">
         <v>1001</v>
       </c>
@@ -988,11 +955,14 @@
       <c r="H5" s="4">
         <v>-1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19">
       <c r="B6" s="5">
         <v>1002</v>
       </c>
@@ -1011,11 +981,14 @@
       <c r="H6" s="4">
         <v>-1</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19">
       <c r="B7" s="5">
         <v>1003</v>
       </c>
@@ -1034,11 +1007,14 @@
       <c r="H7" s="4">
         <v>-1</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19">
       <c r="B8" s="5">
         <v>100</v>
       </c>
@@ -1057,7 +1033,7 @@
       <c r="H8" s="4">
         <v>-1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -1069,23 +1045,29 @@
       <c r="L8" s="8">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19">
       <c r="B9" s="5">
         <v>101</v>
       </c>
@@ -1104,7 +1086,7 @@
       <c r="H9" s="4">
         <v>-1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -1116,23 +1098,29 @@
       <c r="L9" s="8">
         <v>101</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19">
       <c r="B10" s="5">
         <v>102</v>
       </c>
@@ -1151,7 +1139,7 @@
       <c r="H10" s="4">
         <v>-1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -1163,23 +1151,29 @@
       <c r="L10" s="8">
         <v>102</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19">
       <c r="B11" s="5">
         <v>201</v>
       </c>
@@ -1198,7 +1192,7 @@
       <c r="H11" s="4">
         <v>-1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -1210,23 +1204,29 @@
       <c r="L11" s="8">
         <v>201</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>750</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19">
       <c r="B12" s="5">
         <v>202</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="H12" s="4">
         <v>-1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -1257,8 +1257,11 @@
       <c r="L12" s="8">
         <v>202</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19">
       <c r="B13" s="5">
         <v>203</v>
       </c>
@@ -1277,7 +1280,7 @@
       <c r="H13" s="4">
         <v>-1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -1289,8 +1292,11 @@
       <c r="L13" s="8">
         <v>203</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19">
       <c r="B14" s="5">
         <v>204</v>
       </c>
@@ -1309,7 +1315,7 @@
       <c r="H14" s="4">
         <v>-1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
@@ -1321,8 +1327,11 @@
       <c r="L14" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19">
       <c r="B15" s="5">
         <v>205</v>
       </c>
@@ -1341,7 +1350,7 @@
       <c r="H15" s="4">
         <v>-1</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -1353,8 +1362,11 @@
       <c r="L15" s="8">
         <v>205</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.35">
+      <c r="R15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19">
       <c r="B16" s="5">
         <v>206</v>
       </c>
@@ -1373,7 +1385,7 @@
       <c r="H16" s="4">
         <v>-1</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -1385,13 +1397,16 @@
       <c r="L16" s="8">
         <v>206</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="19">
       <c r="B17" s="5">
         <v>3001</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>69</v>
@@ -1405,7 +1420,7 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -1414,25 +1429,31 @@
       <c r="K17" s="8">
         <v>100</v>
       </c>
-      <c r="P17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="P17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>100</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="19">
       <c r="B18" s="5">
         <v>4001</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="4">
         <v>2</v>
@@ -1440,7 +1461,7 @@
       <c r="H18" s="4">
         <v>2</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -1449,25 +1470,28 @@
       <c r="K18" s="8">
         <v>101</v>
       </c>
-      <c r="P18" s="3" t="b">
+      <c r="P18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="Q18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="19">
       <c r="B19" s="5">
         <v>4002</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="4">
         <v>2</v>
@@ -1475,7 +1499,7 @@
       <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -1484,19 +1508,22 @@
       <c r="K19" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R19" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="19">
       <c r="B20" s="5">
         <v>4003</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -1504,7 +1531,7 @@
       <c r="H20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -1513,19 +1540,22 @@
       <c r="K20" s="8">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R20" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="19">
       <c r="B21" s="5">
         <v>4004</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -1533,7 +1563,7 @@
       <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -1542,19 +1572,22 @@
       <c r="K21" s="8">
         <v>202</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R21" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="19">
       <c r="B22" s="5">
         <v>4005</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -1562,7 +1595,7 @@
       <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
@@ -1571,19 +1604,22 @@
       <c r="K22" s="8">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R22" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="19">
       <c r="B23" s="5">
         <v>4006</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4">
         <v>3</v>
@@ -1591,7 +1627,7 @@
       <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
@@ -1600,19 +1636,22 @@
       <c r="K23" s="8">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R23" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="19">
       <c r="B24" s="5">
         <v>4007</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4">
         <v>4</v>
@@ -1620,7 +1659,7 @@
       <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="8" t="s">
@@ -1629,19 +1668,22 @@
       <c r="K24" s="8">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="19">
       <c r="B25" s="5">
         <v>4008</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
@@ -1649,7 +1691,7 @@
       <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
@@ -1658,19 +1700,22 @@
       <c r="K25" s="8">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="R25" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="19">
       <c r="B26" s="5">
         <v>5001</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G26" s="4">
         <v>4</v>
@@ -1678,29 +1723,35 @@
       <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="8"/>
-      <c r="P26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="P26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="19">
       <c r="B27" s="5">
         <v>5002</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
@@ -1708,29 +1759,35 @@
       <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="8"/>
-      <c r="P27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="P27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="19">
       <c r="B28" s="5">
         <v>5003</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G28" s="4">
         <v>4</v>
@@ -1738,29 +1795,35 @@
       <c r="H28" s="4">
         <v>1</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="8"/>
-      <c r="P28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="19" x14ac:dyDescent="0.35">
+      <c r="P28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="19">
       <c r="B29" s="5">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
@@ -1768,18 +1831,21 @@
       <c r="H29" s="4">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="b">
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" s="3" t="b">
-        <v>0</v>
+      <c r="Q29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
